--- a/Database/Data.xlsx
+++ b/Database/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OsamaRoslan\OneDrive - Universiti Malaya\Documents\GitHub\WIA 2004\Moonbuck\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OsamaRoslan\OneDrive - Universiti Malaya\Documents\GitHub\WIA 2004\Moonbuck\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579CB8EB-B41D-44C2-BA17-52B2D41BFBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CE9B3B-226A-4817-AEC3-17A9C9766E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>Index</t>
   </si>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t>https://www.hrw.org/world-report/2021/country-chapters/united-states</t>
+  </si>
+  <si>
+    <t>JAPAN</t>
+  </si>
+  <si>
+    <t>UAE</t>
+  </si>
+  <si>
+    <t>CHINA</t>
+  </si>
+  <si>
+    <t>ENGLAND</t>
   </si>
 </sst>
 </file>
@@ -81,9 +93,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,7 +457,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -452,7 +468,7 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -463,8 +479,192 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Data.xlsx
+++ b/Database/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OsamaRoslan\OneDrive - Universiti Malaya\Documents\GitHub\WIA 2004\Moonbuck\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CE9B3B-226A-4817-AEC3-17A9C9766E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA6D008-ECC9-4B69-9AB8-CBDE41F92989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t>Index</t>
   </si>
@@ -50,13 +50,82 @@
   </si>
   <si>
     <t>ENGLAND</t>
+  </si>
+  <si>
+    <t>https://www.mckinsey.com/industries/public-and-social-sector/our-insights/us-economic-development</t>
+  </si>
+  <si>
+    <t>https://www.usnews.com/news/best-states/articles/2021-03-09/why-washington-is-the-best-state-in-america</t>
+  </si>
+  <si>
+    <t>https://www.americanprogress.org/article/path-higher-inclusive-economic-growth-good-jobs/</t>
+  </si>
+  <si>
+    <t>https://santandertrade.com/en/portal/analyse-markets/japan/economic-political-outline</t>
+  </si>
+  <si>
+    <t>https://www.heritage.org/index/country/japan</t>
+  </si>
+  <si>
+    <t>https://hbr.org/1981/01/behind-japans-success</t>
+  </si>
+  <si>
+    <t>https://www.hrw.org/world-report/2021/country-chapters/japan</t>
+  </si>
+  <si>
+    <t>https://www.investopedia.com/articles/investing/123015/3-economic-challenges-japan-faces-2016.asp</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/2021/10/12/dubais-economy-shows-promising-growth-after-slumping-11percent-last-year.html</t>
+  </si>
+  <si>
+    <t>https://www.dfat.gov.au/geo/united-arab-emirates/united-arab-emirates-country-brief</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/doi/full/10.1177/02633957211009719</t>
+  </si>
+  <si>
+    <t>https://www.worldbank.org/en/country/gcc/publication/uae-economic-update-april-2020</t>
+  </si>
+  <si>
+    <t>https://u.ae/en/about-the-uae/culture/social-life</t>
+  </si>
+  <si>
+    <t>https://www.worldbank.org/en/country/china/overview#1</t>
+  </si>
+  <si>
+    <t>https://www.bbc.co.uk/bitesize/guides/zcx3dmn/revision/4</t>
+  </si>
+  <si>
+    <t>https://www.focus-economics.com/countries/china</t>
+  </si>
+  <si>
+    <t>https://www.oecd.org/economy/china-economic-snapshot/</t>
+  </si>
+  <si>
+    <t>https://www.everycrsreport.com/reports/RL33534.html</t>
+  </si>
+  <si>
+    <t>https://www.parliament.uk/globalassets/documents/commons/lib/research/key_issues/key-issues-the-problems-of-british-society.pdf</t>
+  </si>
+  <si>
+    <t>https://commonslibrary.parliament.uk/research-briefings/sn05795/</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/economy/economicoutputandproductivity/output/bulletins/economicactivityandsocialchangeintheukrealtimeindicators/13may2021\</t>
+  </si>
+  <si>
+    <t>https://www.telegraph.co.uk/business/inclusive-capitalism/social-issues-being-tackled/</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/economy/economicoutputandproductivity/output/articles/ukeconomylatest/2021-01-25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +141,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -81,7 +158,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -89,19 +166,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -441,16 +538,16 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="110.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="138.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,214 +558,310 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="C10" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="C11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
+      <c r="B16" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
+      <c r="B17" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
+      <c r="B18" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="C18" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
+      <c r="B19" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="C19" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
+      <c r="B20" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="C20" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
+      <c r="B21" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="C21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
+      <c r="B22" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="C22" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
+      <c r="B23" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="C23" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
+      <c r="B24" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C24" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
+      <c r="B25" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="C25" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
+      <c r="B26" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="C26" s="3" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{A8F62668-CF61-42F2-8FEB-D24F99FEC3E9}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{663AD966-2106-47B6-8D4B-64EA851E9E00}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{09F8AE88-6689-4362-8587-5DF7A0211263}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{5B6092B0-65EA-4AA8-9A64-BFB7F2783D9F}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{106F5C2A-C99F-4D92-8605-0811FC889D18}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{80797CFB-D4FF-45B2-BB5C-D4796F5A9DC4}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{C217D5EF-C8F0-4450-9EA0-A2D00C3710D3}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{C8CF3A52-2C32-4919-9DBA-EEF6E16652E0}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{44F14518-6FD0-4E38-99BD-C9963B05C0D4}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{7AF71F30-1DB8-4E6B-80EA-C8E8217CD8F0}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{E8B0704F-42EA-4B20-B2EC-00C22A9AEB24}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{AF2A399F-9BC4-4219-B6DB-05360088BA84}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{ED3FA20C-B885-41F5-93D6-9B60837C4CB1}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{E5F3F9FD-DD58-416B-85F9-E1C5F99CB6A5}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{58B5F470-13C8-4B69-91B4-557C5B5B492B}"/>
+    <hyperlink ref="B17" r:id="rId16" location="1" display="https://www.worldbank.org/en/country/china/overview - 1" xr:uid="{02959DD5-B14E-4B24-9B27-200E8458F77A}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{3623A3C9-7ADD-4D89-BAB4-2F66233F5594}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{764912A1-DE43-4E49-A8AA-797EA1E87257}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{7223CE10-E346-4B54-8CEC-E2A70CC99F4D}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{261562CB-4E7C-4C41-91D2-DC02E42E86D3}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{508141AE-D63E-4AD3-9872-3009B988ED04}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{F344E124-7544-4E06-9F67-124A6C5C28FC}"/>
+    <hyperlink ref="B24" r:id="rId23" display="https://www.ons.gov.uk/economy/economicoutputandproductivity/output/bulletins/economicactivityandsocialchangeintheukrealtimeindicators/13may2021%5C" xr:uid="{D3EE5B67-8EA7-4B44-B76E-5EC67F318451}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{F572B191-41DD-4554-88FC-DAD7E3437696}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{263D4D43-770D-4627-9EB4-8485F18D5282}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId26"/>
 </worksheet>
 </file>
--- a/Database/Data.xlsx
+++ b/Database/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OsamaRoslan\OneDrive - Universiti Malaya\Documents\GitHub\WIA 2004\Moonbuck\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA6D008-ECC9-4B69-9AB8-CBDE41F92989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C22416-E797-482D-AC0B-5D135B560210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,12 +55,6 @@
     <t>https://www.mckinsey.com/industries/public-and-social-sector/our-insights/us-economic-development</t>
   </si>
   <si>
-    <t>https://www.usnews.com/news/best-states/articles/2021-03-09/why-washington-is-the-best-state-in-america</t>
-  </si>
-  <si>
-    <t>https://www.americanprogress.org/article/path-higher-inclusive-economic-growth-good-jobs/</t>
-  </si>
-  <si>
     <t>https://santandertrade.com/en/portal/analyse-markets/japan/economic-political-outline</t>
   </si>
   <si>
@@ -82,9 +76,6 @@
     <t>https://www.dfat.gov.au/geo/united-arab-emirates/united-arab-emirates-country-brief</t>
   </si>
   <si>
-    <t>https://journals.sagepub.com/doi/full/10.1177/02633957211009719</t>
-  </si>
-  <si>
     <t>https://www.worldbank.org/en/country/gcc/publication/uae-economic-update-april-2020</t>
   </si>
   <si>
@@ -106,19 +97,28 @@
     <t>https://www.everycrsreport.com/reports/RL33534.html</t>
   </si>
   <si>
-    <t>https://www.parliament.uk/globalassets/documents/commons/lib/research/key_issues/key-issues-the-problems-of-british-society.pdf</t>
-  </si>
-  <si>
-    <t>https://commonslibrary.parliament.uk/research-briefings/sn05795/</t>
-  </si>
-  <si>
-    <t>https://www.ons.gov.uk/economy/economicoutputandproductivity/output/bulletins/economicactivityandsocialchangeintheukrealtimeindicators/13may2021\</t>
-  </si>
-  <si>
     <t>https://www.telegraph.co.uk/business/inclusive-capitalism/social-issues-being-tackled/</t>
   </si>
   <si>
     <t>https://www.ons.gov.uk/economy/economicoutputandproductivity/output/articles/ukeconomylatest/2021-01-25</t>
+  </si>
+  <si>
+    <t>https://www.thebalance.com/us-economic-outlook-3305669</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/2022/02/01/after-a-huge-year-for-growth-the-us-economy-is-about-to-slam-into-a-wall.html</t>
+  </si>
+  <si>
+    <t>https://www.reuters.com/article/us-emirates-gdp-idUSKBN2CJ09C</t>
+  </si>
+  <si>
+    <t>https://www.theguardian.com/business/2022/mar/23/how-has-the-uk-economy-fared-in-the-two-tumultuous-years-since-covid#:~:text=Vladimir%20Putin%27s%20invasion.-,GDP,worst%20performance%20in%20the%20G7.</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/2021/02/12/uk-economy-shrank-by-9point9percent-in-2020-its-largest-contraction-on-record.html</t>
+  </si>
+  <si>
+    <t>https://apnews.com/article/coronavirus-pandemic-economy-4f0b6285a57c8b2929e2aceb864e7675</t>
   </si>
 </sst>
 </file>
@@ -538,7 +538,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,7 +596,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>3</v>
@@ -607,7 +607,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>3</v>
@@ -618,7 +618,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>6</v>
@@ -629,7 +629,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>6</v>
@@ -640,7 +640,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>6</v>
@@ -651,7 +651,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>6</v>
@@ -662,7 +662,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>6</v>
@@ -673,7 +673,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
@@ -684,7 +684,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
@@ -695,7 +695,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
@@ -706,7 +706,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
@@ -717,7 +717,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
@@ -728,7 +728,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>8</v>
@@ -739,7 +739,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>8</v>
@@ -750,7 +750,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>8</v>
@@ -761,7 +761,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>8</v>
@@ -772,7 +772,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>8</v>
@@ -783,7 +783,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>9</v>
@@ -794,7 +794,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>9</v>
@@ -805,7 +805,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>9</v>
@@ -816,7 +816,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>9</v>
@@ -827,7 +827,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>9</v>
@@ -835,31 +835,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{A8F62668-CF61-42F2-8FEB-D24F99FEC3E9}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{663AD966-2106-47B6-8D4B-64EA851E9E00}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{09F8AE88-6689-4362-8587-5DF7A0211263}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{5B6092B0-65EA-4AA8-9A64-BFB7F2783D9F}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{106F5C2A-C99F-4D92-8605-0811FC889D18}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{80797CFB-D4FF-45B2-BB5C-D4796F5A9DC4}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{C217D5EF-C8F0-4450-9EA0-A2D00C3710D3}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{C8CF3A52-2C32-4919-9DBA-EEF6E16652E0}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{44F14518-6FD0-4E38-99BD-C9963B05C0D4}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{7AF71F30-1DB8-4E6B-80EA-C8E8217CD8F0}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{E8B0704F-42EA-4B20-B2EC-00C22A9AEB24}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{AF2A399F-9BC4-4219-B6DB-05360088BA84}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{ED3FA20C-B885-41F5-93D6-9B60837C4CB1}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{E5F3F9FD-DD58-416B-85F9-E1C5F99CB6A5}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{58B5F470-13C8-4B69-91B4-557C5B5B492B}"/>
-    <hyperlink ref="B17" r:id="rId16" location="1" display="https://www.worldbank.org/en/country/china/overview - 1" xr:uid="{02959DD5-B14E-4B24-9B27-200E8458F77A}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{3623A3C9-7ADD-4D89-BAB4-2F66233F5594}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{764912A1-DE43-4E49-A8AA-797EA1E87257}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{7223CE10-E346-4B54-8CEC-E2A70CC99F4D}"/>
-    <hyperlink ref="B21" r:id="rId20" xr:uid="{261562CB-4E7C-4C41-91D2-DC02E42E86D3}"/>
-    <hyperlink ref="B22" r:id="rId21" xr:uid="{508141AE-D63E-4AD3-9872-3009B988ED04}"/>
-    <hyperlink ref="B23" r:id="rId22" xr:uid="{F344E124-7544-4E06-9F67-124A6C5C28FC}"/>
-    <hyperlink ref="B24" r:id="rId23" display="https://www.ons.gov.uk/economy/economicoutputandproductivity/output/bulletins/economicactivityandsocialchangeintheukrealtimeindicators/13may2021%5C" xr:uid="{D3EE5B67-8EA7-4B44-B76E-5EC67F318451}"/>
-    <hyperlink ref="B25" r:id="rId24" xr:uid="{F572B191-41DD-4554-88FC-DAD7E3437696}"/>
-    <hyperlink ref="B26" r:id="rId25" xr:uid="{263D4D43-770D-4627-9EB4-8485F18D5282}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{9CA30516-BDEE-4B3B-AC68-31BAB36B062B}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{359BE54F-1779-4A7E-9D46-DA2EE1424CFC}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{C9A9BAE6-A020-4971-A56E-FFC3D76570E0}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{195A1844-3A9E-458D-8AC8-B67DFDEB339F}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{41E4212C-032D-45A4-B350-823631008CC1}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{05C62532-5699-45B4-AE09-1AD732A03783}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{D7859A52-708C-47E2-A835-A258421B645D}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{59400D69-E56E-46EA-814C-80637B9E2FE7}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{088F04F4-894A-465D-9B83-7164DC4F9804}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{2FBC1CC5-E7A5-4671-AA0C-B257CB32E2A1}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{C33FFE32-13AE-47B1-851C-D935222D8691}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{8B54BAFD-9CAB-473A-94B0-A3BD7B653EB9}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{ECE82C6B-4A78-487F-BF2E-56B460B40EC9}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{65F28DB9-9CED-4E24-800F-0577DB0468AC}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{B670B2E9-1C31-40F5-9792-F4E459FE9C41}"/>
+    <hyperlink ref="B17" r:id="rId16" location="1" display="https://www.worldbank.org/en/country/china/overview - 1" xr:uid="{43B5B1E6-3456-4EE8-A9A6-EEF78DF98195}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{8F87EDA5-333A-4B13-A7F0-30EF19312BDC}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{B03D3343-2E19-4A14-9B22-4EC860B74C83}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{F63FE0F0-9F4B-48F7-B1B9-FAE5ED33B27A}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{F0395B8B-03BB-47B0-946D-C099042EF18F}"/>
+    <hyperlink ref="B22" r:id="rId21" location=":~:text=Vladimir%20Putin%27s%20invasion.-,GDP,worst%20performance%20in%20the%20G7." display="https://www.theguardian.com/business/2022/mar/23/how-has-the-uk-economy-fared-in-the-two-tumultuous-years-since-covid - :~:text=Vladimir%20Putin%27s%20invasion.-,GDP,worst%20performance%20in%20the%20G7." xr:uid="{D9B815BD-5168-484E-AF64-2F237C2DE13A}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{F96D1D1F-6495-4B01-B9B3-0B83571235B7}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{8EDE88E6-BAA5-42F4-80B4-1DF56816DECF}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{8113CEC6-B8CA-45C6-8920-12920DA25C0A}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{CCE7410C-29C6-4829-972A-C6121A406551}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId26"/>
